--- a/زمان کاری-رضا هراتی.xlsx
+++ b/زمان کاری-رضا هراتی.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reza\Documents\GitHub\Internship\r.harati\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>جدول ثبت زمان های کاری</t>
   </si>
@@ -48,14 +48,20 @@
   </si>
   <si>
     <t>جمع بندی گروهی Task های امکان سنجی و لیست سوالات</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>omid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-3060000]B2d/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-3060000]B2d/mm/yyyy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -113,11 +119,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -402,32 +408,32 @@
   <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" customWidth="1"/>
-    <col min="3" max="3" width="50.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.3125" customWidth="1"/>
+    <col min="2" max="2" width="6.5234375" customWidth="1"/>
+    <col min="3" max="3" width="50.5234375" customWidth="1"/>
     <col min="4" max="2106" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.2" x14ac:dyDescent="0.75">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" ht="22.2" x14ac:dyDescent="1.45">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" ht="22.2" x14ac:dyDescent="0.75">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" ht="22.2" x14ac:dyDescent="1.45">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -438,8 +444,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1">
@@ -449,232 +455,238 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+    <row r="5" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>5</v>
       </c>
